--- a/Outputs/LT_equationsToPercentChangePerYr_new.xlsx
+++ b/Outputs/LT_equationsToPercentChangePerYr_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40436072c29b51f3/University of Johannesburg/Post-Doc/Nature Research Centre/How Changes in Bioversity Change Biodiversity/Analyses/BioChange_Deliverables_1_and_2/Outputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40436072c29b51f3/University of Johannesburg/Post-Doc/Nature Research Centre/How Changes in Bioversity Change Biodiversity/Analyses/Biochange_Paper1/Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="8_{4401107E-A22B-4323-8706-685CCB71FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A980CD1-DF47-4A23-916E-4451FC383187}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="8_{4401107E-A22B-4323-8706-685CCB71FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C978886-7DE0-422A-A910-4E6A4DB7F5D0}"/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="7920" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LT_Yr_metaanaly_weighted_noRand" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>Response</t>
   </si>
@@ -44,9 +44,6 @@
     <t>spp_richness</t>
   </si>
   <si>
-    <t>spp_richness_rarefied</t>
-  </si>
-  <si>
     <t>shannonsH</t>
   </si>
   <si>
@@ -59,24 +56,6 @@
     <t>turnover</t>
   </si>
   <si>
-    <t>func_turnover</t>
-  </si>
-  <si>
-    <t>func_rich</t>
-  </si>
-  <si>
-    <t>func_even</t>
-  </si>
-  <si>
-    <t>fric.ses</t>
-  </si>
-  <si>
-    <t>fdis.ses</t>
-  </si>
-  <si>
-    <t>feve.ses</t>
-  </si>
-  <si>
     <t>FRed</t>
   </si>
   <si>
@@ -89,15 +68,9 @@
     <t>perEstimate</t>
   </si>
   <si>
-    <t>ept_spp_richness</t>
-  </si>
-  <si>
     <t>ept_abundance</t>
   </si>
   <si>
-    <t>diptera_spp_richness</t>
-  </si>
-  <si>
     <t>diptera_abundance</t>
   </si>
   <si>
@@ -146,15 +119,58 @@
     <t>log10(x + 0.28)</t>
   </si>
   <si>
-    <t>func_disp</t>
+    <t>spp_rich_rare</t>
+  </si>
+  <si>
+    <t>F_turnover</t>
+  </si>
+  <si>
+    <t>FRic</t>
+  </si>
+  <si>
+    <t>FEve</t>
+  </si>
+  <si>
+    <t>FDis</t>
+  </si>
+  <si>
+    <t>FRic.SES</t>
+  </si>
+  <si>
+    <t>FDis.SES</t>
+  </si>
+  <si>
+    <t>FEve.SES</t>
+  </si>
+  <si>
+    <t>ept_richness</t>
+  </si>
+  <si>
+    <t>diptera_richness</t>
+  </si>
+  <si>
+    <t>crustacea_richness</t>
+  </si>
+  <si>
+    <t>crustacea_abundance</t>
+  </si>
+  <si>
+    <t>actualChange</t>
+  </si>
+  <si>
+    <t>ObsPeriod</t>
+  </si>
+  <si>
+    <t>OverallChange</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -633,10 +649,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -992,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1005,12 +1023,15 @@
     <col min="3" max="3" width="12.68359375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.68359375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.68359375" customWidth="1"/>
+    <col min="7" max="7" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1019,18 +1040,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1045,16 +1075,27 @@
         <f>((C2*2)/SQRT(D2))*100</f>
         <v>3.2849729482290848</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="2">
+        <f>D2*(E2/100)</f>
+        <v>0.89449323085808097</v>
+      </c>
+      <c r="G2" s="3">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4">
+        <f>F2*G2</f>
+        <v>9.8394255394388903</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>3.6032948151300002E-2</v>
@@ -1066,16 +1107,27 @@
         <f>((C3*2)/SQRT(D3))*100</f>
         <v>1.5589677038907754</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F27" si="0">D3*(E3/100)</f>
+        <v>0.33313669019156056</v>
+      </c>
+      <c r="G3" s="3">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H27" si="1">F3*G3</f>
+        <v>3.6645035921071663</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>4.4390512997570297E-2</v>
@@ -1087,16 +1139,27 @@
         <f>(C4/D4)*100</f>
         <v>1.7128524217053951</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4390512997570297E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48829564297327327</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>-2.06630975353435E-3</v>
@@ -1108,37 +1171,59 @@
         <f>(C5/D5)*100</f>
         <v>-1.9054836501695132</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.06630975353435E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.2729407288877852E-2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1.50642277837471E-2</v>
+        <v>1.4757360000000001E-2</v>
       </c>
       <c r="D6">
-        <v>747.68059701492541</v>
+        <v>747.68060000000003</v>
       </c>
       <c r="E6" s="2">
         <f>(10^C6-1)*100</f>
-        <v>3.5295265110166341</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.4563995057383723</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>25.842828562901698</v>
+      </c>
+      <c r="G6" s="3">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>284.27111419191868</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1.0857446534903101E-2</v>
@@ -1150,16 +1235,27 @@
         <f>((C7/3)/D7^3)*100</f>
         <v>0.7650866720867876</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9613218874124884E-3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5574540761537375E-2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>-4.8252508623564897E-3</v>
@@ -1171,16 +1267,27 @@
         <f>(10^C8-1)*100</f>
         <v>-1.1049056492692499</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.856044816648801E-4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.5416492983136811E-3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>3.4760153405952198E-3</v>
@@ -1192,16 +1299,27 @@
         <f>(10^C9-1)*100</f>
         <v>0.80359373093579212</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0899542570032176E-4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6989496827035396E-3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>4.4463972640895299E-4</v>
@@ -1213,16 +1331,27 @@
         <f>((C10/2)/D10^2)*100</f>
         <v>6.9419362448526617E-2</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9285242984228071E-4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>4.321376728265088E-3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>1.00771300816531E-4</v>
@@ -1234,16 +1363,27 @@
         <f>((C11/3)/D11^3)*100</f>
         <v>0.36403813268741259</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6354819590127726E-4</v>
+      </c>
+      <c r="G11" s="3">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3990301549140504E-3</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>1.68166685765712E-2</v>
@@ -1255,16 +1395,27 @@
         <f>(C12/D12)*100</f>
         <v>-1.9507906691100716</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.68166685765712E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18498335434228319</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>-5.7108017109969199E-3</v>
@@ -1273,19 +1424,30 @@
         <v>-0.43697788041194047</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E15" si="0">(C13/D13)*100</f>
+        <f t="shared" ref="E13:E15" si="2">(C13/D13)*100</f>
         <v>1.3068857640147207</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.7108017109969208E-3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.2818818820966127E-2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>-9.3435573175312397E-3</v>
@@ -1294,19 +1456,30 @@
         <v>-0.54744073562686635</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7067705615352262</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.3435573175312397E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.10277913049284364</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>9.8869715828571892E-4</v>
@@ -1315,40 +1488,62 @@
         <v>0.36168163681791055</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.27336117116266007</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8869715828571892E-4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0875668741142909E-2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>4.3180863518439097E-2</v>
+        <v>4.3180704609472903E-2</v>
       </c>
       <c r="D16">
         <v>9.5462686567164177</v>
       </c>
       <c r="E16" s="2">
         <f>((C16*2)/SQRT(D16))*100</f>
-        <v>2.79514596757789</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.795135681221391</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2668311614491346</v>
+      </c>
+      <c r="G16" s="3">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9351427759404807</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1.2569895243962801E-2</v>
@@ -1360,16 +1555,27 @@
         <f>(10^C17-1)*100</f>
         <v>2.9366179796388225</v>
       </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7518825241027072</v>
+      </c>
+      <c r="G17" s="3">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>85.270707765129785</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>2.53713876386716E-2</v>
@@ -1381,16 +1587,27 @@
         <f>((C18*2)/SQRT(D18))*100</f>
         <v>2.9866434770637031</v>
       </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6211469920017936E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94832616912019729</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>7.2941818449228498E-3</v>
@@ -1402,58 +1619,91 @@
         <f>(10^C19-1)*100</f>
         <v>1.6937311321813198</v>
       </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8743789332345693</v>
+      </c>
+      <c r="G19" s="3">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>20.618168265580262</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>3.6357381488657199E-2</v>
+        <v>3.4361043906960202E-2</v>
       </c>
       <c r="D20">
-        <v>18.244776119402985</v>
+        <v>8.6985069999999993</v>
       </c>
       <c r="E20" s="2">
         <f>((C20*2)/SQRT(D20))*100</f>
-        <v>1.7023675156961924</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.3300969235696476</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20268364400349045</v>
+      </c>
+      <c r="G20" s="3">
+        <v>11</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2295200840383949</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>-1.43825306847698E-3</v>
+        <v>4.3587858868678201E-3</v>
       </c>
       <c r="D21">
-        <v>461.71940298507462</v>
+        <v>197.74629999999999</v>
       </c>
       <c r="E21" s="2">
         <f>(10^C21-1)*100</f>
-        <v>-0.33062224451578803</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.0087009746675646</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9946688554690462</v>
+      </c>
+      <c r="G21" s="3">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>21.941357410159508</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
         <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
       </c>
       <c r="C22">
         <v>7.5961462494533297E-2</v>
@@ -1465,16 +1715,27 @@
         <f>((C22*2)/SQRT(D22))*100</f>
         <v>6.5413387569873542</v>
       </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35284176519033278</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8812594170936605</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>4.1519625628652398E-2</v>
@@ -1486,16 +1747,27 @@
         <f>(10^C23-1)*100</f>
         <v>10.03215673517639</v>
       </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>15.118909400958662</v>
+      </c>
+      <c r="G23" s="3">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>166.3080034105453</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>2.7270553330796601E-2</v>
@@ -1507,16 +1779,27 @@
         <f>((C24*2)/SQRT(D24))*100</f>
         <v>3.5516716082532054</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3755837925971119E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>11</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92131421718568229</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>3.30680340588883E-2</v>
@@ -1528,9 +1811,87 @@
         <f>(10^C25-1)*100</f>
         <v>7.9115757015688848</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4319929621560776</v>
+      </c>
+      <c r="G25" s="3">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>70.751922583716848</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>2.4747106221487E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.3253729999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <f>((C26*2)/SQRT(D26))*100</f>
+        <v>4.2991773256229884</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>5.698013549592916E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>11</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6267814904552208</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>5.0752770090010099E-2</v>
+      </c>
+      <c r="D27">
+        <v>53.820900000000002</v>
+      </c>
+      <c r="E27" s="2">
+        <f>(10^C27-1)*100</f>
+        <v>12.396495463763868</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6719054270568883</v>
+      </c>
+      <c r="G27" s="3">
+        <v>11</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>73.390959697625775</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outputs/LT_equationsToPercentChangePerYr_new.xlsx
+++ b/Outputs/LT_equationsToPercentChangePerYr_new.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40436072c29b51f3/University of Johannesburg/Post-Doc/Nature Research Centre/How Changes in Bioversity Change Biodiversity/Analyses/Biochange_Paper1/Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="8_{4401107E-A22B-4323-8706-685CCB71FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C978886-7DE0-422A-A910-4E6A4DB7F5D0}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="8_{4401107E-A22B-4323-8706-685CCB71FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC30CE6-63CF-4325-A16A-7DF8DD6AA5FC}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="7920" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LT_Yr_metaanaly_weighted_noRand" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LT_Yr_metaanaly_weighted_noRand!$A$1:$I$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -714,9 +717,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -754,7 +757,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -860,7 +863,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1002,7 +1005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1010,26 +1013,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.68359375" customWidth="1"/>
-    <col min="7" max="7" width="8.83984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1079,7 @@
         <f>((C2*2)/SQRT(D2))*100</f>
         <v>3.2849729482290848</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <f>D2*(E2/100)</f>
         <v>0.89449323085808097</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1111,7 @@
         <f>((C3*2)/SQRT(D3))*100</f>
         <v>1.5589677038907754</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F27" si="0">D3*(E3/100)</f>
         <v>0.33313669019156056</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1143,7 @@
         <f>(C4/D4)*100</f>
         <v>1.7128524217053951</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>4.4390512997570297E-2</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1175,7 @@
         <f>(C5/D5)*100</f>
         <v>-1.9054836501695132</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>-2.06630975353435E-3</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1207,7 @@
         <f>(10^C6-1)*100</f>
         <v>3.4563995057383723</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>25.842828562901698</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1239,7 @@
         <f>((C7/3)/D7^3)*100</f>
         <v>0.7650866720867876</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>5.9613218874124884E-3</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1271,7 @@
         <f>(10^C8-1)*100</f>
         <v>-1.1049056492692499</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>-6.856044816648801E-4</v>
       </c>
@@ -1282,7 +1286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1303,7 @@
         <f>(10^C9-1)*100</f>
         <v>0.80359373093579212</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>6.0899542570032176E-4</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1335,7 @@
         <f>((C10/2)/D10^2)*100</f>
         <v>6.9419362448526617E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>3.9285242984228071E-4</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1367,7 @@
         <f>((C11/3)/D11^3)*100</f>
         <v>0.36403813268741259</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>7.6354819590127726E-4</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1399,7 @@
         <f>(C12/D12)*100</f>
         <v>-1.9507906691100716</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>1.68166685765712E-2</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1427,7 +1431,7 @@
         <f t="shared" ref="E13:E15" si="2">(C13/D13)*100</f>
         <v>1.3068857640147207</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>-5.7108017109969208E-3</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1463,7 @@
         <f t="shared" si="2"/>
         <v>1.7067705615352262</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>-9.3435573175312397E-3</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1491,7 +1495,7 @@
         <f t="shared" si="2"/>
         <v>0.27336117116266007</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>9.8869715828571892E-4</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1559,7 @@
         <f>(10^C17-1)*100</f>
         <v>2.9366179796388225</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>7.7518825241027072</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1591,7 @@
         <f>((C18*2)/SQRT(D18))*100</f>
         <v>2.9866434770637031</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>8.6211469920017936E-2</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1619,7 +1623,7 @@
         <f>(10^C19-1)*100</f>
         <v>1.6937311321813198</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>1.8743789332345693</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1683,7 +1687,7 @@
         <f>(10^C21-1)*100</f>
         <v>1.0087009746675646</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
         <v>1.9946688554690462</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +1751,7 @@
         <f>(10^C23-1)*100</f>
         <v>10.03215673517639</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
         <v>15.118909400958662</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1811,7 +1815,7 @@
         <f>(10^C25-1)*100</f>
         <v>7.9115757015688848</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <f t="shared" si="0"/>
         <v>6.4319929621560776</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1858,7 +1862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1875,7 +1879,7 @@
         <f>(10^C27-1)*100</f>
         <v>12.396495463763868</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <f t="shared" si="0"/>
         <v>6.6719054270568883</v>
       </c>
@@ -1890,10 +1894,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="H29" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I29" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="annelid_abundance"/>
+        <filter val="crustacea_abundance"/>
+        <filter val="ept_abundance"/>
+        <filter val="insect_abundance"/>
+        <filter val="mollusc_abundance"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
